--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics_Fold_3.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics_Fold_3.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
-  <si>
-    <t>Lambda Threshold</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>F1 Score</t>
-  </si>
-  <si>
-    <t>Specificity</t>
-  </si>
-  <si>
-    <t>38.60%</t>
-  </si>
-  <si>
-    <t>39.39%</t>
-  </si>
-  <si>
-    <t>53.85%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>46.67%</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>75.00%</t>
-  </si>
-  <si>
-    <t>42.42%</t>
-  </si>
-  <si>
-    <t>39.13%</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>44.44%</t>
-  </si>
-  <si>
-    <t>47.37%</t>
-  </si>
-  <si>
-    <t>66.67%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>40.00%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,214 +420,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Lambda Threshold</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>57.89%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>57.89%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.33%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0.55</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>65.22%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>65.22%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.95%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0.6</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0.65</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>0.7</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>0.75</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>0.8</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>0.85</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>0.9</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics_Fold_3.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics_Fold_3.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>57.89%</t>
+          <t>29.82%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>57.89%</t>
+          <t>37.93%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.33%</t>
+          <t>35.48%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>65.22%</t>
+          <t>26.47%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>65.22%</t>
+          <t>35.71%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>23.81%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.95%</t>
+          <t>28.57%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>30.77%</t>
         </is>
       </c>
     </row>
@@ -531,22 +531,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics_Fold_3.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics_Fold_3.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29.82%</t>
+          <t>56.14%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>37.93%</t>
+          <t>62.50%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.61%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>35.48%</t>
+          <t>61.54%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26.47%</t>
+          <t>56.36%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>35.71%</t>
+          <t>63.33%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.81%</t>
+          <t>59.38%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>61.29%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>30.77%</t>
+          <t>52.17%</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>58.49%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>65.52%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>61.29%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>63.33%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>54.55%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>61.90%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>52.00%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>56.52%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>57.89%</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>58.97%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>65.00%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>59.09%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>61.90%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>58.82%</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>56.67%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>63.16%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>64.86%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>41.67%</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>55.56%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>63.16%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>70.59%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -681,27 +681,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>56.52%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>61.11%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>78.57%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>68.75%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>22.22%</t>
         </is>
       </c>
     </row>
@@ -711,27 +711,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>65.00%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>68.75%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>84.62%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>75.86%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>28.57%</t>
         </is>
       </c>
     </row>

--- a/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics_Fold_3.xlsx
+++ b/Codes/ML_models/Models/All_Results/RF_Results/Sliding_Window_Model/Lambda_Abstain_Results_Metrics_Fold_3.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>56.14%</t>
+          <t>53.72%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>53.60%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.61%</t>
+          <t>92.97%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>68.00%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>9.65%</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>56.36%</t>
+          <t>61.54%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>63.33%</t>
+          <t>61.90%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59.38%</t>
+          <t>97.50%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>61.29%</t>
+          <t>75.73%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>52.17%</t>
+          <t>4.00%</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>58.49%</t>
+          <t>47.06%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>65.52%</t>
+          <t>47.06%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>61.29%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>63.33%</t>
+          <t>64.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>61.90%</t>
+          <t>40.00%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>52.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>56.52%</t>
+          <t>57.14%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>57.89%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>58.97%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>65.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.09%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>61.90%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58.82%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -621,27 +621,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>56.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>64.86%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -681,27 +681,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>56.52%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>61.11%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>78.57%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -711,27 +711,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>65.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75.86%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
